--- a/spike/RaSpike通信仕様.xlsx
+++ b/spike/RaSpike通信仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toi/Library/Mobile Documents/com~apple~CloudDocs/ロボコン/ETロボコン2022/SPIKE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toi/Library/Mobile Documents/com~apple~CloudDocs/ロボコン/ETロボコン2022/ev3rt/ev3rt_aspsim_raspi_linux/spike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F9532-3AC3-2C4F-838E-C081BD1D9D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755335EA-83F3-4748-AC2A-A3DCD85ED909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1200" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
   </bookViews>
   <sheets>
     <sheet name="EV3API仕様(9-24) コメント追記" sheetId="5" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="304">
   <si>
     <t>■エンディアン</t>
     <phoneticPr fontId="1"/>
@@ -2351,8 +2351,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Bit1-7: コマンドIDの7bitを示す</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">シメス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bit0:未使用</t>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">ミシヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知するコマンドがない場合に送信</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツウチスルコマンドガナイバアイニ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ソウシン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>超音波センサー時
-0:センチ　1:Listen
+1:センチ　2:Listen
 カラーセンサー時
 1:Ambient 2:Color 3:Reflect 4:RGB</t>
     <rPh sb="0" eb="3">
@@ -2363,20 +2391,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t/>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bit1-7: コマンドIDの7bitを示す</t>
-    <rPh sb="20" eb="21">
-      <t xml:space="preserve">シメス </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bit0:未使用</t>
-    <rPh sb="5" eb="8">
-      <t xml:space="preserve">ミシヨウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2707,6 +2721,45 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2761,6 +2814,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2776,15 +2856,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2793,63 +2864,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3194,40 +3208,40 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="28" t="s">
         <v>140</v>
       </c>
@@ -3243,7 +3257,7 @@
       <c r="K5" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="10" t="s">
@@ -3625,25 +3639,25 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="16">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="56" t="s">
         <v>137</v>
       </c>
       <c r="I17" s="15" t="s">
@@ -3660,13 +3674,13 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="16">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="15" t="s">
         <v>151</v>
       </c>
@@ -3716,28 +3730,28 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="16">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="56" t="s">
         <v>156</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -3751,14 +3765,14 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="16">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="10" t="s">
         <v>139</v>
       </c>
@@ -3803,25 +3817,25 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="32">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="56" t="s">
         <v>137</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -3838,13 +3852,13 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="32">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="10" t="s">
         <v>161</v>
       </c>
@@ -4540,48 +4554,48 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="41" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="40"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="9" t="s">
         <v>140</v>
       </c>
@@ -4597,7 +4611,7 @@
       <c r="M5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="N5" s="42"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="2:14" ht="32">
       <c r="B6" s="10" t="s">
@@ -5092,31 +5106,31 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="16">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="56" t="s">
         <v>137</v>
       </c>
       <c r="K18" s="15" t="s">
@@ -5133,15 +5147,15 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="16">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="15" t="s">
         <v>151</v>
       </c>
@@ -5197,34 +5211,34 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="16">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="56" t="s">
         <v>156</v>
       </c>
       <c r="L21" s="10" t="s">
@@ -5238,16 +5252,16 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="16">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="10" t="s">
         <v>139</v>
       </c>
@@ -5298,31 +5312,31 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="32">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="43" t="s">
+      <c r="H24" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="56" t="s">
         <v>137</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -5339,15 +5353,15 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="32">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="10" t="s">
         <v>161</v>
       </c>
@@ -6145,7 +6159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9774249-B467-6242-84EC-5EDC119DA342}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6161,10 +6175,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="38" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6180,16 +6194,16 @@
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -6197,13 +6211,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="66"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="72" t="s">
         <v>251</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -6212,25 +6226,25 @@
       <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="22" customHeight="1">
-      <c r="B9" s="66"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
-      <c r="B10" s="66"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="34" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="37" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="72" t="s">
         <v>252</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -6238,16 +6252,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
-      <c r="B13" s="66"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="34" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="70"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="32"/>
@@ -6256,10 +6270,10 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="38" t="s">
         <v>261</v>
       </c>
     </row>
@@ -6272,13 +6286,13 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="69"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>262</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -6286,32 +6300,32 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="72"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="72"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="32" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="72"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="32" t="s">
         <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6320,10 +6334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD7363-B4EB-7845-AFFF-BACB0B47E1E5}">
-  <dimension ref="B2:K109"/>
+  <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -6362,49 +6376,49 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="73"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="84"/>
+      <c r="E7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="60" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
@@ -6412,55 +6426,55 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="60" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="60">
+      <c r="D13" s="74"/>
+      <c r="E13" s="75">
         <v>1024</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:11" ht="85">
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
@@ -6479,169 +6493,169 @@
       <c r="J14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="49">
         <v>0</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="49">
         <v>0</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="49">
         <v>1</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="49">
         <v>0</v>
       </c>
-      <c r="J15" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="76"/>
+      <c r="J15" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="84">
+      <c r="E16" s="49">
         <v>1</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="49">
         <v>0</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="49">
         <v>1</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="49">
         <v>0</v>
       </c>
-      <c r="J16" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="76"/>
+      <c r="J16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="84">
+      <c r="E17" s="49">
         <v>2</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="49">
         <v>0</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="49">
         <v>1</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="49">
         <v>0</v>
       </c>
-      <c r="J17" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="76"/>
+      <c r="J17" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="49">
         <v>3</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="49">
         <v>0</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="49">
         <v>1</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="49">
         <v>0</v>
       </c>
-      <c r="J18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="76"/>
+      <c r="J18" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="49">
         <v>4</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="49">
         <v>0</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="49">
         <v>1</v>
       </c>
-      <c r="H19" s="84" t="s">
+      <c r="H19" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="49">
         <v>0</v>
       </c>
-      <c r="J19" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="76"/>
+      <c r="J19" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="3:11">
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="49">
         <v>5</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="49">
         <v>0</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="49">
         <v>1</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="49">
         <v>0</v>
       </c>
-      <c r="J20" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="76"/>
+      <c r="J20" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" s="2" t="s">
@@ -6668,7 +6682,7 @@
       <c r="J21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="76"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="3:11">
       <c r="C22" s="2" t="s">
@@ -6695,7 +6709,7 @@
       <c r="J22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="76"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="3:11">
       <c r="C23" s="2" t="s">
@@ -6720,7 +6734,7 @@
       <c r="J23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="76"/>
+      <c r="K23" s="42"/>
     </row>
     <row r="24" spans="3:11">
       <c r="C24" s="2" t="s">
@@ -6748,7 +6762,7 @@
       <c r="J24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="76"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="3:11">
       <c r="C25" s="2" t="s">
@@ -6776,9 +6790,9 @@
       <c r="J25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="76"/>
-    </row>
-    <row r="26" spans="3:11" ht="85">
+      <c r="K25" s="42"/>
+    </row>
+    <row r="26" spans="3:11" ht="34">
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
@@ -6804,7 +6818,7 @@
       <c r="J26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="77"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
@@ -6832,7 +6846,7 @@
       <c r="J27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="76"/>
+      <c r="K27" s="42"/>
     </row>
     <row r="28" spans="3:11">
       <c r="C28" s="2" t="s">
@@ -6860,7 +6874,7 @@
       <c r="J28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="76"/>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="3:11">
       <c r="C29" s="2" t="s">
@@ -6888,7 +6902,7 @@
       <c r="J29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="76"/>
+      <c r="K29" s="42"/>
     </row>
     <row r="30" spans="3:11">
       <c r="C30" s="2" t="s">
@@ -6916,7 +6930,7 @@
       <c r="J30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="76"/>
+      <c r="K30" s="42"/>
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="2" t="s">
@@ -6944,371 +6958,371 @@
       <c r="J31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="76"/>
+      <c r="K31" s="42"/>
     </row>
     <row r="32" spans="3:11">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="84">
+      <c r="E32" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="49">
         <v>4</v>
       </c>
-      <c r="H32" s="84" t="s">
+      <c r="H32" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="84">
+      <c r="I32" s="49">
         <v>36</v>
       </c>
-      <c r="J32" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="76"/>
+      <c r="J32" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="42"/>
     </row>
     <row r="33" spans="3:11">
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="84">
+      <c r="E33" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="49">
         <v>4</v>
       </c>
-      <c r="H33" s="84" t="s">
+      <c r="H33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="84">
+      <c r="I33" s="49">
         <v>40</v>
       </c>
-      <c r="J33" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="76"/>
+      <c r="J33" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="42"/>
     </row>
     <row r="34" spans="3:11">
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="84">
+      <c r="E34" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="49">
         <v>4</v>
       </c>
-      <c r="H34" s="84" t="s">
+      <c r="H34" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="49">
         <v>44</v>
       </c>
-      <c r="J34" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="76"/>
+      <c r="J34" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="3:11">
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="84">
+      <c r="E35" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="49">
         <v>4</v>
       </c>
-      <c r="H35" s="84" t="s">
+      <c r="H35" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="49">
         <v>48</v>
       </c>
-      <c r="J35" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="76"/>
+      <c r="J35" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="42"/>
     </row>
     <row r="36" spans="3:11">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="84">
+      <c r="E36" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="49">
         <v>4</v>
       </c>
-      <c r="H36" s="84" t="s">
+      <c r="H36" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="49">
         <v>52</v>
       </c>
-      <c r="J36" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="76"/>
+      <c r="J36" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="42"/>
     </row>
     <row r="37" spans="3:11">
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="84">
+      <c r="E37" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="49">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="49">
         <v>4</v>
       </c>
-      <c r="H37" s="84" t="s">
+      <c r="H37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="84">
+      <c r="I37" s="49">
         <v>56</v>
       </c>
-      <c r="J37" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="76"/>
+      <c r="J37" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="3:11">
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="84">
+      <c r="E38" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="49">
         <v>4</v>
       </c>
-      <c r="H38" s="84" t="s">
+      <c r="H38" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="84">
+      <c r="I38" s="49">
         <v>60</v>
       </c>
-      <c r="J38" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="76"/>
+      <c r="J38" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="42"/>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="84">
+      <c r="E39" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="49">
         <v>4</v>
       </c>
-      <c r="H39" s="84" t="s">
+      <c r="H39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="84">
+      <c r="I39" s="49">
         <v>64</v>
       </c>
-      <c r="J39" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="76"/>
+      <c r="J39" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="42"/>
     </row>
     <row r="40" spans="3:11">
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="84">
+      <c r="E40" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="49">
         <v>4</v>
       </c>
-      <c r="H40" s="84" t="s">
+      <c r="H40" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="84">
+      <c r="I40" s="49">
         <v>68</v>
       </c>
-      <c r="J40" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="76"/>
+      <c r="J40" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="3:11">
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="84">
+      <c r="E41" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="49">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="49">
         <v>4</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="84">
+      <c r="I41" s="49">
         <v>72</v>
       </c>
-      <c r="J41" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="76"/>
+      <c r="J41" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="42"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="84">
+      <c r="E42" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="49">
         <v>4</v>
       </c>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="49">
         <v>76</v>
       </c>
-      <c r="J42" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="76"/>
+      <c r="J42" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="42"/>
     </row>
     <row r="43" spans="3:11">
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="84">
+      <c r="E43" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="49">
         <v>4</v>
       </c>
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="84">
+      <c r="I43" s="49">
         <v>80</v>
       </c>
-      <c r="J43" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="76"/>
+      <c r="J43" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="3:11">
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="84">
+      <c r="E44" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="49">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="49">
         <v>4</v>
       </c>
-      <c r="H44" s="84" t="s">
+      <c r="H44" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I44" s="84">
+      <c r="I44" s="49">
         <v>84</v>
       </c>
-      <c r="J44" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="76"/>
+      <c r="J44" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" s="2" t="s">
@@ -7336,7 +7350,7 @@
       <c r="J45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="76"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" s="2" t="s">
@@ -7364,119 +7378,119 @@
       <c r="J46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="76"/>
+      <c r="K46" s="42"/>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="84">
+      <c r="E47" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="49">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="49">
         <v>4</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I47" s="84">
+      <c r="I47" s="49">
         <v>96</v>
       </c>
-      <c r="J47" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="76"/>
+      <c r="J47" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="84">
+      <c r="E48" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="49">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G48" s="84">
+      <c r="G48" s="49">
         <v>4</v>
       </c>
-      <c r="H48" s="84" t="s">
+      <c r="H48" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="84">
+      <c r="I48" s="49">
         <v>100</v>
       </c>
-      <c r="J48" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="76"/>
+      <c r="J48" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="42"/>
     </row>
     <row r="49" spans="3:11">
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="84">
+      <c r="E49" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="49">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G49" s="84">
+      <c r="G49" s="49">
         <v>4</v>
       </c>
-      <c r="H49" s="84" t="s">
+      <c r="H49" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I49" s="49">
         <v>104</v>
       </c>
-      <c r="J49" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="76"/>
+      <c r="J49" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="42"/>
     </row>
     <row r="50" spans="3:11">
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="84">
+      <c r="E50" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="49">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="49">
         <v>4</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I50" s="84">
+      <c r="I50" s="49">
         <v>108</v>
       </c>
-      <c r="J50" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="76"/>
+      <c r="J50" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="42"/>
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="27" t="s">
@@ -7504,63 +7518,63 @@
       <c r="J51" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="78"/>
+      <c r="K51" s="44"/>
     </row>
     <row r="52" spans="3:11">
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="84">
+      <c r="E52" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="49">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="49">
         <v>4</v>
       </c>
-      <c r="H52" s="84" t="s">
+      <c r="H52" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="84">
+      <c r="I52" s="49">
         <v>116</v>
       </c>
-      <c r="J52" s="84" t="s">
+      <c r="J52" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="K52" s="78"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="53" spans="3:11">
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="E53" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="84">
+      <c r="E53" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="49">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G53" s="84">
+      <c r="G53" s="49">
         <v>4</v>
       </c>
-      <c r="H53" s="84" t="s">
+      <c r="H53" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="84">
+      <c r="I53" s="49">
         <v>120</v>
       </c>
-      <c r="J53" s="84" t="s">
+      <c r="J53" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="K53" s="78"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="27" t="s">
@@ -7588,7 +7602,7 @@
       <c r="J54" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="78"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" s="27" t="s">
@@ -7616,7 +7630,7 @@
       <c r="J55" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K55" s="78"/>
+      <c r="K55" s="44"/>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" s="27" t="s">
@@ -7644,7 +7658,7 @@
       <c r="J56" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K56" s="78"/>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" s="27" t="s">
@@ -7672,7 +7686,7 @@
       <c r="J57" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K57" s="78"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="3:11">
       <c r="C58" s="27" t="s">
@@ -7700,7 +7714,7 @@
       <c r="J58" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="K58" s="78"/>
+      <c r="K58" s="44"/>
     </row>
     <row r="59" spans="3:11">
       <c r="C59" s="27"/>
@@ -7711,7 +7725,7 @@
       <c r="H59" s="31"/>
       <c r="I59" s="5"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="78"/>
+      <c r="K59" s="44"/>
     </row>
     <row r="60" spans="3:11">
       <c r="C60" s="27"/>
@@ -7722,7 +7736,7 @@
       <c r="H60" s="31"/>
       <c r="I60" s="5"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="78"/>
+      <c r="K60" s="44"/>
     </row>
     <row r="61" spans="3:11">
       <c r="C61" s="27"/>
@@ -7733,7 +7747,7 @@
       <c r="H61" s="31"/>
       <c r="I61" s="5"/>
       <c r="J61" s="31"/>
-      <c r="K61" s="78"/>
+      <c r="K61" s="44"/>
     </row>
     <row r="62" spans="3:11">
       <c r="C62" s="27"/>
@@ -7744,7 +7758,7 @@
       <c r="H62" s="31"/>
       <c r="I62" s="5"/>
       <c r="J62" s="31"/>
-      <c r="K62" s="78"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" s="27"/>
@@ -7755,7 +7769,7 @@
       <c r="H63" s="31"/>
       <c r="I63" s="5"/>
       <c r="J63" s="31"/>
-      <c r="K63" s="78"/>
+      <c r="K63" s="44"/>
     </row>
     <row r="64" spans="3:11">
       <c r="C64" s="27"/>
@@ -7766,7 +7780,7 @@
       <c r="H64" s="31"/>
       <c r="I64" s="5"/>
       <c r="J64" s="31"/>
-      <c r="K64" s="78"/>
+      <c r="K64" s="44"/>
     </row>
     <row r="65" spans="3:11">
       <c r="C65" s="27"/>
@@ -7777,7 +7791,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="5"/>
       <c r="J65" s="31"/>
-      <c r="K65" s="78"/>
+      <c r="K65" s="44"/>
     </row>
     <row r="66" spans="3:11">
       <c r="C66" s="27"/>
@@ -7788,7 +7802,7 @@
       <c r="H66" s="31"/>
       <c r="I66" s="5"/>
       <c r="J66" s="31"/>
-      <c r="K66" s="78"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="3:11">
       <c r="C67" s="27"/>
@@ -7799,7 +7813,7 @@
       <c r="H67" s="31"/>
       <c r="I67" s="5"/>
       <c r="J67" s="31"/>
-      <c r="K67" s="78"/>
+      <c r="K67" s="44"/>
     </row>
     <row r="68" spans="3:11">
       <c r="C68" s="27"/>
@@ -7810,7 +7824,7 @@
       <c r="H68" s="31"/>
       <c r="I68" s="5"/>
       <c r="J68" s="31"/>
-      <c r="K68" s="78"/>
+      <c r="K68" s="44"/>
     </row>
     <row r="69" spans="3:11">
       <c r="C69" s="24" t="s">
@@ -7833,7 +7847,7 @@
       <c r="J69" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K69" s="79"/>
+      <c r="K69" s="45"/>
     </row>
     <row r="70" spans="3:11" ht="16" customHeight="1"/>
     <row r="71" spans="3:11">
@@ -7849,37 +7863,37 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
-      <c r="K71" s="80"/>
+      <c r="K71" s="46"/>
     </row>
     <row r="72" spans="3:11">
       <c r="C72" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="58" t="s">
+      <c r="E72" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="76"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="42"/>
     </row>
     <row r="73" spans="3:11" ht="17">
       <c r="C73" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="21"/>
-      <c r="E73" s="57">
+      <c r="E73" s="79">
         <v>1024</v>
       </c>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="81"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" spans="3:11" ht="34">
       <c r="C74" s="36" t="s">
@@ -8503,7 +8517,7 @@
       <c r="I98" s="5">
         <v>224</v>
       </c>
-      <c r="J98" s="82" t="s">
+      <c r="J98" s="76" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8528,7 +8542,7 @@
       <c r="I99" s="5">
         <v>228</v>
       </c>
-      <c r="J99" s="60"/>
+      <c r="J99" s="75"/>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="24" t="s">
@@ -8551,7 +8565,7 @@
       <c r="I100" s="5">
         <v>232</v>
       </c>
-      <c r="J100" s="60"/>
+      <c r="J100" s="75"/>
     </row>
     <row r="101" spans="3:10">
       <c r="C101" s="24" t="s">
@@ -8574,7 +8588,7 @@
       <c r="I101" s="5">
         <v>236</v>
       </c>
-      <c r="J101" s="60"/>
+      <c r="J101" s="75"/>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="24" t="s">
@@ -8597,8 +8611,8 @@
       <c r="I102" s="5">
         <v>240</v>
       </c>
-      <c r="J102" s="82" t="s">
-        <v>299</v>
+      <c r="J102" s="76" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="3:10">
@@ -8622,7 +8636,7 @@
       <c r="I103" s="5">
         <v>244</v>
       </c>
-      <c r="J103" s="60"/>
+      <c r="J103" s="75"/>
     </row>
     <row r="104" spans="3:10">
       <c r="C104" s="24" t="s">
@@ -8645,7 +8659,7 @@
       <c r="I104" s="5">
         <v>248</v>
       </c>
-      <c r="J104" s="60"/>
+      <c r="J104" s="75"/>
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="24" t="s">
@@ -8668,7 +8682,7 @@
       <c r="I105" s="5">
         <v>252</v>
       </c>
-      <c r="J105" s="60"/>
+      <c r="J105" s="75"/>
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="24" t="s">
@@ -8691,7 +8705,7 @@
       <c r="I106" s="5">
         <v>256</v>
       </c>
-      <c r="J106" s="60" t="s">
+      <c r="J106" s="75" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8716,7 +8730,7 @@
       <c r="I107" s="5">
         <v>260</v>
       </c>
-      <c r="J107" s="60"/>
+      <c r="J107" s="75"/>
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="24" t="s">
@@ -8739,7 +8753,7 @@
       <c r="I108" s="5">
         <v>264</v>
       </c>
-      <c r="J108" s="60"/>
+      <c r="J108" s="75"/>
     </row>
     <row r="109" spans="3:10">
       <c r="C109" s="24" t="s">
@@ -8762,28 +8776,45 @@
       <c r="I109" s="5">
         <v>268</v>
       </c>
-      <c r="J109" s="60"/>
+      <c r="J109" s="75"/>
+    </row>
+    <row r="110" spans="3:10">
+      <c r="C110" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F110" s="1">
+        <v>127</v>
+      </c>
+      <c r="G110" s="1">
+        <v>4</v>
+      </c>
+      <c r="I110" s="1">
+        <v>508</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J98:J101"/>
-    <mergeCell ref="J106:J109"/>
-    <mergeCell ref="J102:J105"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:J12"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="J98:J101"/>
+    <mergeCell ref="J106:J109"/>
+    <mergeCell ref="J102:J105"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E73:J73"/>
     <mergeCell ref="E72:J72"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spike/RaSpike通信仕様.xlsx
+++ b/spike/RaSpike通信仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toi/Library/Mobile Documents/com~apple~CloudDocs/ロボコン/ETロボコン2022/ev3rt/ev3rt_aspsim_raspi_linux/spike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF45A628-D25B-7745-8499-1B3776DF153F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E8C50-5B96-9642-B3AD-8EBC9A8B8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
+    <workbookView xWindow="34520" yWindow="1320" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
   </bookViews>
   <sheets>
     <sheet name="EV3API仕様(9-24) コメント追記" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="314">
   <si>
     <t>■エンディアン</t>
     <phoneticPr fontId="1"/>
@@ -431,13 +431,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HRP2</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>HRP2のAPI一式</t>
   </si>
   <si>
     <t>〇</t>
@@ -677,19 +671,6 @@
   </si>
   <si>
     <t>POWER_[AB]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unity側の実装が出来ていません</t>
-    <rPh sb="5" eb="6">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>デキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1744,6 +1725,143 @@
     <rPh sb="9" eb="11">
       <t xml:space="preserve">セイヤク </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRP3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○実装済 ●実装予定 △実装済（制限あり)▲実装予定（制限あり) X 実装せず</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ジッソウズミダガ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイゲンアリ </t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">セイゲンアリ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ジッソウセズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応ボタンの制限</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウボタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPIKEとの対応ができない</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <rPh sb="0" eb="1">
+      <t>○</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットした後すぐに値を取ると不正な値が取れるかも</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">アタイヲ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">トルト </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">フセイナ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">アタイガトレルカモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止した時の動作が正しいか不明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テイシシタトキノ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ドウサガ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">タダシイカ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPIKEで対応できるが、Simulatorで対応していないのでどうするか</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タイオウデキルガ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">タイオウシテイナイノデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simulator同等</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ドウトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-256まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１方向だけで良いか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体ボタンにマップ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホンタイボタンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRP3のAPI一式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーセンサーのみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1842,7 +1960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1928,13 +2046,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2174,6 +2303,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5031,10 +5169,10 @@
         <v>79</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>81</v>
@@ -5056,37 +5194,37 @@
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
       <c r="G5" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="J5" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L5" s="54"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>18</v>
@@ -5109,19 +5247,19 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>18</v>
@@ -5144,16 +5282,16 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="10" t="s">
@@ -5177,16 +5315,16 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="10" t="s">
@@ -5210,19 +5348,19 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>18</v>
@@ -5245,19 +5383,19 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>18</v>
@@ -5280,19 +5418,19 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>18</v>
@@ -5315,28 +5453,28 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>18</v>
@@ -5350,16 +5488,16 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="10" t="s">
@@ -5383,104 +5521,104 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="L15" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="K16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="16">
       <c r="B17" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="K17" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>18</v>
@@ -5495,39 +5633,39 @@
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
       <c r="I18" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>18</v>
@@ -5544,37 +5682,37 @@
     </row>
     <row r="20" spans="2:12" ht="16">
       <c r="B20" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="K20" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="16">
@@ -5587,30 +5725,30 @@
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
       <c r="J21" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>18</v>
@@ -5631,34 +5769,34 @@
     </row>
     <row r="23" spans="2:12" ht="32">
       <c r="B23" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>61</v>
@@ -5673,13 +5811,13 @@
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
       <c r="I24" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>62</v>
@@ -5687,16 +5825,16 @@
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="10" t="s">
@@ -5718,16 +5856,16 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="10" t="s">
@@ -5749,25 +5887,25 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>18</v>
@@ -5784,34 +5922,34 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>29</v>
@@ -5819,168 +5957,168 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="48">
       <c r="B30" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="10" t="s">
+      <c r="L30" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>18</v>
@@ -5994,283 +6132,283 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="E39" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>53</v>
@@ -6336,13 +6474,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713CC4E1-6511-4532-8BF9-470EB48E5499}">
-  <dimension ref="B4:L43"/>
+  <dimension ref="B3:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -6351,7 +6489,7 @@
     <col min="2" max="2" width="7.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="14" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -6364,6 +6502,11 @@
     <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:12">
+      <c r="E3" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
     <row r="4" spans="2:12" ht="18.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>77</v>
@@ -6375,10 +6518,10 @@
         <v>79</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>81</v>
@@ -6400,31 +6543,31 @@
       <c r="E5" s="60"/>
       <c r="F5" s="52"/>
       <c r="G5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="J5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L5" s="54"/>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -6449,15 +6592,17 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
@@ -6482,15 +6627,17 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>18</v>
       </c>
@@ -6515,17 +6662,19 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="F9" s="13" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>18</v>
@@ -6548,15 +6697,17 @@
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
@@ -6581,17 +6732,19 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>302</v>
+      </c>
       <c r="F11" s="13" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>18</v>
@@ -6614,15 +6767,17 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
@@ -6647,15 +6802,17 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
@@ -6680,26 +6837,28 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>205</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>304</v>
+      </c>
       <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>18</v>
@@ -6713,15 +6872,17 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>304</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
@@ -6746,98 +6907,104 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="25" t="s">
+        <v>304</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="48">
+      <c r="B17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="K17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="16">
       <c r="B18" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="57"/>
+        <v>101</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>204</v>
+      </c>
       <c r="F18" s="55" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="K18" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>18</v>
@@ -6852,37 +7019,39 @@
       <c r="G19" s="56"/>
       <c r="H19" s="56"/>
       <c r="I19" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K19" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>204</v>
+      </c>
       <c r="F20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>18</v>
@@ -6899,35 +7068,37 @@
     </row>
     <row r="21" spans="2:12" ht="16">
       <c r="B21" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="57"/>
+        <v>103</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>129</v>
+      </c>
       <c r="F21" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="16">
@@ -6940,28 +7111,30 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="48">
       <c r="B23" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
-        <v>18</v>
+        <v>104</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>18</v>
@@ -6982,32 +7155,34 @@
     </row>
     <row r="24" spans="2:12" ht="32">
       <c r="B24" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="57"/>
+        <v>105</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>204</v>
+      </c>
       <c r="F24" s="55" t="s">
-        <v>18</v>
+        <v>308</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="K24" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>61</v>
@@ -7022,13 +7197,13 @@
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>62</v>
@@ -7036,15 +7211,17 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
@@ -7067,15 +7244,17 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
@@ -7098,23 +7277,25 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="25"/>
+        <v>206</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>18</v>
@@ -7131,32 +7312,34 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="25"/>
+        <v>109</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>29</v>
@@ -7164,158 +7347,168 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F30" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="48">
       <c r="B31" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="25"/>
+        <v>111</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F31" s="13" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="L31" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="25"/>
+        <v>113</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="F32" s="13" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="F33" s="13" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="25"/>
+        <v>172</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>300</v>
+      </c>
       <c r="F34" s="13" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>18</v>
@@ -7329,277 +7522,293 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F38" s="13" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="F39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L39" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="F40" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F41" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="F42" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="13" t="s">
@@ -7665,7 +7874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9774249-B467-6242-84EC-5EDC119DA342}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7677,23 +7886,23 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="223" customHeight="1">
       <c r="B4" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -7701,7 +7910,7 @@
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="B5" s="63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="32"/>
@@ -7710,117 +7919,117 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="67"/>
       <c r="C7" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22" customHeight="1">
       <c r="B8" s="67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="22" customHeight="1">
       <c r="B9" s="67"/>
       <c r="C9" s="31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="B10" s="67"/>
       <c r="C10" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="67"/>
       <c r="C11" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="B12" s="67" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="B13" s="67"/>
       <c r="C13" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="323">
       <c r="B18" s="34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C19" s="64"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="66" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="66"/>
       <c r="C21" s="31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="66"/>
       <c r="C22" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="66"/>
       <c r="C23" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7858,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD7363-B4EB-7845-AFFF-BACB0B47E1E5}">
   <dimension ref="B2:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -7957,7 +8166,7 @@
       </c>
       <c r="D11" s="73"/>
       <c r="E11" s="70" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -8008,7 +8217,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>3</v>
@@ -8017,10 +8226,10 @@
         <v>73</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>75</v>
@@ -8340,7 +8549,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -8456,7 +8665,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>18</v>
@@ -8485,7 +8694,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -8891,7 +9100,7 @@
         <v>27</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>18</v>
@@ -8920,7 +9129,7 @@
         <v>27</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>18</v>
@@ -8949,7 +9158,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E47" s="48" t="s">
         <v>18</v>
@@ -9036,7 +9245,7 @@
         <v>27</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>18</v>
@@ -9091,10 +9300,10 @@
     </row>
     <row r="52" spans="3:12">
       <c r="C52" s="47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>18</v>
@@ -9114,16 +9323,16 @@
       </c>
       <c r="J52" s="48"/>
       <c r="K52" s="48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L52" s="43"/>
     </row>
     <row r="53" spans="3:12">
       <c r="C53" s="47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>18</v>
@@ -9143,7 +9352,7 @@
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L53" s="43"/>
     </row>
@@ -9181,7 +9390,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>18</v>
@@ -9443,7 +9652,7 @@
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="22"/>
@@ -9459,7 +9668,7 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F72" s="76"/>
       <c r="G72" s="76"/>
@@ -9494,7 +9703,7 @@
         <v>15</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>3</v>
@@ -9504,7 +9713,7 @@
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K74" s="6"/>
     </row>
@@ -9586,7 +9795,7 @@
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
       <c r="L77" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="3:12">
@@ -9615,7 +9824,7 @@
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
       <c r="L78" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="3:12">
@@ -9769,7 +9978,7 @@
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
       <c r="L84" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="3:12">
@@ -9798,7 +10007,7 @@
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
       <c r="L85" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="3:12">
@@ -9827,7 +10036,7 @@
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
       <c r="L86" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="3:12">
@@ -9856,7 +10065,7 @@
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
       <c r="L87" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="3:12">
@@ -10069,10 +10278,10 @@
     </row>
     <row r="96" spans="3:12">
       <c r="C96" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E96" s="29" t="s">
         <v>18</v>
@@ -10114,10 +10323,10 @@
     </row>
     <row r="98" spans="3:11">
       <c r="C98" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24">
@@ -10135,15 +10344,15 @@
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="71" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="3:11">
       <c r="C99" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24">
@@ -10164,10 +10373,10 @@
     </row>
     <row r="100" spans="3:11">
       <c r="C100" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24">
@@ -10188,10 +10397,10 @@
     </row>
     <row r="101" spans="3:11">
       <c r="C101" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24">
@@ -10212,10 +10421,10 @@
     </row>
     <row r="102" spans="3:11">
       <c r="C102" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24">
@@ -10231,17 +10440,19 @@
       <c r="I102" s="5">
         <v>240</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="80" t="s">
+        <v>313</v>
+      </c>
       <c r="K102" s="71" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="3:11">
       <c r="C103" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24">
@@ -10257,15 +10468,15 @@
       <c r="I103" s="5">
         <v>244</v>
       </c>
-      <c r="J103" s="5"/>
+      <c r="J103" s="81"/>
       <c r="K103" s="70"/>
     </row>
     <row r="104" spans="3:11">
       <c r="C104" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24">
@@ -10281,15 +10492,15 @@
       <c r="I104" s="5">
         <v>248</v>
       </c>
-      <c r="J104" s="5"/>
+      <c r="J104" s="81"/>
       <c r="K104" s="70"/>
     </row>
     <row r="105" spans="3:11">
       <c r="C105" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="24">
@@ -10305,15 +10516,15 @@
       <c r="I105" s="5">
         <v>252</v>
       </c>
-      <c r="J105" s="5"/>
+      <c r="J105" s="82"/>
       <c r="K105" s="70"/>
     </row>
     <row r="106" spans="3:11">
       <c r="C106" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="24">
@@ -10331,15 +10542,15 @@
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="70" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="3:11">
       <c r="C107" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="24">
@@ -10360,10 +10571,10 @@
     </row>
     <row r="108" spans="3:11">
       <c r="C108" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="24">
@@ -10384,10 +10595,10 @@
     </row>
     <row r="109" spans="3:11">
       <c r="C109" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="24">
@@ -10408,7 +10619,7 @@
     </row>
     <row r="110" spans="3:11">
       <c r="C110" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F110" s="1">
         <v>127</v>
@@ -10420,11 +10631,11 @@
         <v>508</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:K11"/>
     <mergeCell ref="C12:D12"/>
@@ -10443,6 +10654,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E73:K73"/>
     <mergeCell ref="E72:K72"/>
+    <mergeCell ref="J102:J105"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spike/RaSpike通信仕様.xlsx
+++ b/spike/RaSpike通信仕様.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toi/Library/Mobile Documents/com~apple~CloudDocs/ロボコン/ETロボコン2022/ev3rt/ev3rt_aspsim_raspi_linux/spike/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E8C50-5B96-9642-B3AD-8EBC9A8B8D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87522CB5-E245-FC46-8831-743FB2ECE1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34520" yWindow="1320" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
+    <workbookView xWindow="6680" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{DD386010-0A49-405C-9655-B2786A7AC426}"/>
   </bookViews>
   <sheets>
     <sheet name="EV3API仕様(9-24) コメント追記" sheetId="5" r:id="rId1"/>
     <sheet name="EV3API仕様(6-22)" sheetId="2" r:id="rId2"/>
     <sheet name="RaSpike通信仕様" sheetId="11" r:id="rId3"/>
-    <sheet name="モード変更コマンド" sheetId="12" r:id="rId4"/>
-    <sheet name="RaSpikeコマンドID" sheetId="4" r:id="rId5"/>
+    <sheet name="Ackシーケンス" sheetId="13" r:id="rId4"/>
+    <sheet name="RasPikeコマンドID" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="315">
   <si>
     <t>■エンディアン</t>
     <phoneticPr fontId="1"/>
@@ -1243,16 +1243,6 @@
   </si>
   <si>
     <t>SPIKEセンサ情報通知</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通知開始Byte : @</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ツウチ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">カイシ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1461,13 +1451,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モード変更</t>
+    <t>RasPike向け制約</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ムケ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">セイヤク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRP3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○実装済 ●実装予定 △実装済（制限あり)▲実装予定（制限あり) X 実装せず</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ズミ </t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">ジッソウズミダガ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイゲンアリ </t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t xml:space="preserve">ジッソウヨテイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">セイゲンアリ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ジッソウセズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応ボタンの制限</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウボタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPIKEとの対応ができない</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <rPh sb="0" eb="1">
+      <t>○</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リセットした後すぐに値を取ると不正な値が取れるかも</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">アタイヲ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">トルト </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">フセイナ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">アタイガトレルカモ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止した時の動作が正しいか不明</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テイシシタトキノ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ドウサガ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">タダシイカ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">フメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPIKEで対応できるが、Simulatorで対応していないのでどうするか</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">タイオウデキルガ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">タイオウシテイナイノデ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simulator同等</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ドウトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-256まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１方向だけで良いか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体ボタンにマップ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ホンタイボタンイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRP3のAPI一式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev3_battery_current_mA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ascii文字列による通知を行う。これはシリアルI/Fが文字列しか送れないため。
 コマンド文字列に続いて通知IDと値のペアで送信する。数値は0-9の10進数で表わされ、指定された桁数に対して数字が不足している場合は０を挿入して右詰めする。これにより常に同じByte数の読み込みを行えば良いことになる。全部で12Byteで構成される。
 通知開始Byte：１Byte 0-9/+/-以外の文字。
+  @はステータスを意味する。&lt;はAckを示し、いくつかのコマンドはこのAckを返す必要がある
 通知ID : 4Byte。符号なしで表現
 セパレータ文字：1Byte。「:」を使用する。
 値：6Byte。符号もこれに含む。従って、-99999〜999999までが表現可能である。この制限外の数値は通知できないことに注意。
@@ -1475,7 +1609,9 @@
 送信例：
 @0001:000025
 @0020:-00100
-@0030:999942</t>
+@0030:999942
+Ackの場合は受け付けたコマンドのIDを返す。この場合、後ろの値は0とする。
+&lt;0128:000000</t>
     <rPh sb="5" eb="8">
       <t xml:space="preserve">モジレツニヨル </t>
     </rPh>
@@ -1569,72 +1705,118 @@
     <rPh sb="192" eb="194">
       <t xml:space="preserve">モジ </t>
     </rPh>
-    <rPh sb="196" eb="198">
+    <rPh sb="206" eb="208">
+      <t xml:space="preserve">イミスル </t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t xml:space="preserve">シメシ、 </t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t xml:space="preserve">カエスヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="243" eb="245">
       <t xml:space="preserve">ツウチ </t>
     </rPh>
-    <rPh sb="209" eb="211">
+    <rPh sb="256" eb="258">
       <t xml:space="preserve">フゴウナシ </t>
     </rPh>
-    <rPh sb="214" eb="216">
+    <rPh sb="261" eb="263">
       <t xml:space="preserve">ヒョウゲン </t>
     </rPh>
-    <rPh sb="235" eb="237">
+    <rPh sb="282" eb="284">
       <t xml:space="preserve">シヨウスル </t>
     </rPh>
-    <rPh sb="240" eb="241">
+    <rPh sb="287" eb="288">
       <t xml:space="preserve">アタイ </t>
     </rPh>
-    <rPh sb="248" eb="250">
+    <rPh sb="295" eb="297">
       <t xml:space="preserve">フゴウモ </t>
     </rPh>
-    <rPh sb="257" eb="258">
+    <rPh sb="304" eb="305">
       <t xml:space="preserve">シタガッテ、 </t>
     </rPh>
-    <rPh sb="277" eb="281">
+    <rPh sb="324" eb="328">
       <t xml:space="preserve">ヒョウゲンカノウデアレル </t>
     </rPh>
-    <rPh sb="289" eb="290">
+    <rPh sb="336" eb="337">
       <t xml:space="preserve">ガイノ </t>
     </rPh>
-    <rPh sb="291" eb="293">
+    <rPh sb="338" eb="340">
       <t xml:space="preserve">スウチハ </t>
     </rPh>
-    <rPh sb="294" eb="296">
+    <rPh sb="341" eb="343">
       <t xml:space="preserve">ツウチデキナイコトニ </t>
     </rPh>
-    <rPh sb="303" eb="305">
+    <rPh sb="350" eb="352">
       <t xml:space="preserve">チュウイ </t>
     </rPh>
-    <rPh sb="312" eb="313">
+    <rPh sb="359" eb="360">
       <t xml:space="preserve">セイノ </t>
     </rPh>
-    <rPh sb="314" eb="317">
+    <rPh sb="361" eb="364">
       <t xml:space="preserve">サイダイスウ </t>
     </rPh>
-    <rPh sb="324" eb="327">
+    <rPh sb="371" eb="374">
       <t xml:space="preserve">ナイブテキニ </t>
     </rPh>
-    <rPh sb="328" eb="330">
+    <rPh sb="375" eb="377">
       <t xml:space="preserve">トクシュナアタイ </t>
     </rPh>
-    <rPh sb="340" eb="341">
+    <rPh sb="387" eb="388">
       <t xml:space="preserve">ガワデ </t>
     </rPh>
-    <rPh sb="342" eb="343">
+    <rPh sb="389" eb="390">
       <t xml:space="preserve">アツカウタメ、 </t>
     </rPh>
-    <rPh sb="347" eb="350">
+    <rPh sb="394" eb="397">
       <t xml:space="preserve">ツウチヨウノ </t>
     </rPh>
-    <rPh sb="351" eb="355">
+    <rPh sb="398" eb="402">
       <t xml:space="preserve">セイジョウスウチトシテハ </t>
     </rPh>
-    <rPh sb="359" eb="361">
+    <rPh sb="406" eb="408">
       <t xml:space="preserve">シヨウシテハナラナイ </t>
     </rPh>
-    <rPh sb="369" eb="372">
+    <rPh sb="416" eb="419">
       <t xml:space="preserve">ソウシンレイ </t>
     </rPh>
+    <rPh sb="467" eb="469">
+      <t xml:space="preserve">バアイヘ </t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t xml:space="preserve">ウケツケタ </t>
+    </rPh>
+    <rPh sb="483" eb="484">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="491" eb="492">
+      <t xml:space="preserve">ウシロノ </t>
+    </rPh>
+    <rPh sb="494" eb="495">
+      <t xml:space="preserve">アタイハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知開始Byte : @（ステータス）,&lt;(Ack)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツウチ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">カイシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ack待ち
+(ETロボコン最適化)</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部データ上のオフセット</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1642,7 +1824,8 @@
 コマンドはコマンドIDと値のペアで表現される。
 コマンドIDは8bit で0-255で示される。
 値は符号1ビットと値12bitで表現され、-4096〜4096を表現する。
-いくつかのモード変更を伴うコマンドはSPIKE側からの応答が返るまでbusyループで待ちとなる。このシーケンスについては「モード変更コマンド」を参照のこと。どのコマンドが該当するかはRasPikeコマンドIDのモード変更列を参照のこと。</t>
+いくつかのコマンドはSPIKE側からのAckが返るまで待ちとなる。これはSPIKE側での通信の取りこぼしがあり、モード変更などではコマンドの取りこぼしにより動作が不安定になることから、それを解消するためである。ただし、Ack待ちを行うと処理としては遅くなるため、注意が必要である。このシーケンスについては「Ackシーケンス」を参照のこと。どのコマンドが該当するかはRasPikeコマンドIDのAck待ち列を参照のこと。
+Ackがこない場合、おおむね200msec周期で再送を行う。その間他のコマンドの送信は行われない。</t>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">ツウシンコマンド </t>
     </rPh>
@@ -1688,180 +1871,72 @@
     <rPh sb="191" eb="193">
       <t xml:space="preserve">ヒョウゲンスル </t>
     </rPh>
-    <rPh sb="208" eb="209">
-      <t xml:space="preserve">トモナウ </t>
+    <rPh sb="212" eb="213">
+      <t xml:space="preserve">ガワカラノ </t>
     </rPh>
     <rPh sb="220" eb="221">
-      <t xml:space="preserve">ガワカラノ </t>
-    </rPh>
-    <rPh sb="224" eb="226">
-      <t xml:space="preserve">オウトウガ </t>
-    </rPh>
-    <rPh sb="227" eb="228">
       <t xml:space="preserve">カエルマデ </t>
     </rPh>
-    <rPh sb="239" eb="240">
+    <rPh sb="224" eb="225">
       <t xml:space="preserve">マチトナル </t>
     </rPh>
-    <rPh sb="269" eb="271">
+    <rPh sb="238" eb="239">
+      <t xml:space="preserve">ガワデノ </t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t xml:space="preserve">ツウシンノトリコボシガ </t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t xml:space="preserve">ドウサガ </t>
+    </rPh>
+    <rPh sb="278" eb="281">
+      <t xml:space="preserve">フアンテイニナルコトカラ、 </t>
+    </rPh>
+    <rPh sb="292" eb="294">
+      <t xml:space="preserve">カイショウスルタメデアル </t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t xml:space="preserve">マチヲオコナウト </t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t xml:space="preserve">ショリトシテハ </t>
+    </rPh>
+    <rPh sb="321" eb="322">
+      <t xml:space="preserve">オソクナルタメ、 </t>
+    </rPh>
+    <rPh sb="328" eb="330">
+      <t xml:space="preserve">チュウイガヒツヨウデアル </t>
+    </rPh>
+    <rPh sb="360" eb="362">
       <t xml:space="preserve">サンショウノコト </t>
     </rPh>
-    <rPh sb="282" eb="284">
+    <rPh sb="373" eb="375">
       <t xml:space="preserve">ガイトウスルカハ </t>
     </rPh>
-    <rPh sb="307" eb="308">
+    <rPh sb="396" eb="397">
+      <t xml:space="preserve">マチ </t>
+    </rPh>
+    <rPh sb="398" eb="399">
       <t xml:space="preserve">レツヲ </t>
     </rPh>
-    <rPh sb="309" eb="311">
+    <rPh sb="400" eb="402">
       <t xml:space="preserve">サンショウノコト </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RasPike向け制約</t>
-    <rPh sb="7" eb="8">
-      <t xml:space="preserve">ムケ </t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">セイヤク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HRP3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○実装済 ●実装予定 △実装済（制限あり)▲実装予定（制限あり) X 実装せず</t>
-    <rPh sb="1" eb="3">
-      <t xml:space="preserve">ジッソウヨテイ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">ズミ </t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t xml:space="preserve">ジッソウヨテイ </t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t xml:space="preserve">ジッソウズミダガ </t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">セイゲンアリ </t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t xml:space="preserve">ジッソウヨテイ </t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t xml:space="preserve">セイゲンアリ </t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t xml:space="preserve">ジッソウセズ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応ボタンの制限</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タイオウボタン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPIKEとの対応ができない</t>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">タイオウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <rPh sb="0" eb="1">
-      <t>○</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リセットした後すぐに値を取ると不正な値が取れるかも</t>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">アタイヲ </t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t xml:space="preserve">トルト </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">フセイナ </t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t xml:space="preserve">アタイガトレルカモ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>停止した時の動作が正しいか不明</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">テイシシタトキノ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ドウサガ </t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t xml:space="preserve">タダシイカ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">フメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPIKEで対応できるが、Simulatorで対応していないのでどうするか</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">タイオウデキルガ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">タイオウシテイナイノデ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Simulator同等</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">ドウトウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0-256まで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１方向だけで良いか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本体ボタンにマップ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ホンタイボタンイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HRP3のAPI一式</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラーセンサーのみ</t>
+    <rPh sb="428" eb="430">
+      <t xml:space="preserve">シュウキデ </t>
+    </rPh>
+    <rPh sb="431" eb="433">
+      <t xml:space="preserve">サイソウヲオコナイ、 </t>
+    </rPh>
+    <rPh sb="440" eb="441">
+      <t xml:space="preserve">ホカノコマンドノ </t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t xml:space="preserve">ソウシンハ </t>
+    </rPh>
+    <rPh sb="450" eb="451">
+      <t xml:space="preserve">オコナワレナイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1960,7 +2035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2046,24 +2121,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2304,15 +2368,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2336,13 +2391,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2350,7 +2405,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F2D9C1-7EB4-E448-AD25-33CE4EE59A89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BFC685-BE25-E647-B89F-B439286F55B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,21 +2465,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF2F593-B379-714E-968D-9ED2B8462988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F6E9F6-7285-6E43-8CB2-A1E7942D1785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,8 +2489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="800100"/>
-          <a:ext cx="12700" cy="6184900"/>
+          <a:off x="2476500" y="1485900"/>
+          <a:ext cx="12700" cy="10248900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2462,21 +2517,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21152EC-9D3F-EE42-B965-C661BD18F883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5A1FD1-DA1A-A741-BB00-D6AC5DB6C519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,12 +2580,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>RasPike</a:t>
+            <a:t>EV3RT</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スレッド</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>/Driver</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2539,33 +2595,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6">
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E68E516-5C41-5249-B824-B88D4E8A68EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF67CD7A-E777-2742-8C4E-C0C29CBA1AB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
+          <a:stCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4978400" y="787400"/>
-          <a:ext cx="12700" cy="6184900"/>
+        <a:xfrm flipH="1">
+          <a:off x="4965700" y="1473200"/>
+          <a:ext cx="12700" cy="10223500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2592,21 +2648,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6354CF27-725C-8244-A159-9BC0B42CC9BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57370904-7B94-834D-8917-F12FE29D977E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,32 +2726,32 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9284F2-9235-3D44-A441-1B80A0106F7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EA33DF-B50F-644B-8152-69FA935BE240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
+          <a:stCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9906000" y="800100"/>
-          <a:ext cx="12700" cy="6184900"/>
+          <a:off x="9906000" y="1485900"/>
+          <a:ext cx="0" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2722,21 +2778,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{350F0F70-14C9-214A-90A6-258883742863}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C686D9-C832-0C45-A394-F2E3DC345059}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,26 +2850,26 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A83100-1A69-024B-8FBC-2E39FAF5D823}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51717257-0699-EF47-A716-384AF5778BA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
+          <a:stCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2846,21 +2902,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074F84C6-8620-334E-8568-45BA84988624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C13BF4F-B33C-AD49-8B2D-74425CDB0C59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,21 +2955,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFE3849-67D6-B84A-A805-7CD6B9CFF5A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7B1F1E-A7FC-944C-BA68-2320413DDC75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,11 +3018,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>athrill</a:t>
+            <a:t>RasPike</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>データ</a:t>
+            <a:t>送信処理</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2977,32 +3033,32 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EDC84B-FBF3-E44F-AF06-40302C623B22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6FA9476-5C7A-BD46-8F6B-2AB544638CB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
+          <a:stCxn id="11" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="787400"/>
-          <a:ext cx="0" cy="7366000"/>
+          <a:off x="7429500" y="1473200"/>
+          <a:ext cx="12700" cy="10172700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3029,16 +3085,16 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1761316" cy="328295"/>
+    <xdr:ext cx="1751185" cy="328295"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3833DAC-C6BF-954C-A388-BDBC8D147D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D39A61-C8B1-F241-87B7-1226F5D31FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,8 +3102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="1117600"/>
-          <a:ext cx="1761316" cy="328295"/>
+          <a:off x="2476500" y="1803400"/>
+          <a:ext cx="1751185" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3084,7 +3140,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>A)</a:t>
+            <a:t>2)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3095,22 +3151,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47535901-6D16-1F4B-9DA5-C454090E7B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1F3D53-F6E9-DC47-838C-E06EC17C38BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3174,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965700" y="3238500"/>
+          <a:off x="4978400" y="3759200"/>
           <a:ext cx="2489200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3148,17 +3204,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2255105" cy="328295"/>
+    <xdr:ext cx="2390013" cy="328295"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C692B67-573D-7441-8FC6-6FF2A83E40D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD10A3B-EB72-2147-94FD-AF08F32B1DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,8 +3222,149 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965700" y="2959100"/>
-          <a:ext cx="2255105" cy="328295"/>
+          <a:off x="4978400" y="3479800"/>
+          <a:ext cx="2390013" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モード変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>244</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260A966B-C46C-6E49-83DC-B3B103BAA839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="4533900"/>
+          <a:ext cx="5003800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549207" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5A758A-95F5-7D42-AEAE-DACAC7196910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4254500"/>
+          <a:ext cx="1549207" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,737 +3393,12 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reflect</a:t>
+            <a:t>cmd=61 value=1</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>センサー値を</a:t>
+            <a:t>を送信</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>999999</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="フローチャート: 判断 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5D9CB3-6074-7445-811B-7B7EEEF318BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695700" y="1676400"/>
-          <a:ext cx="2540000" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>現在のモードは</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>reflect?</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="275717" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE04F997-D746-3546-B3C7-7257B2F607AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5003800" y="2781300"/>
-          <a:ext cx="275717" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7706B0B1-A2D9-F246-BC66-B4F093546219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="3632200"/>
-          <a:ext cx="7442200" cy="25400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1625638" cy="328295"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD40D5EC-35BD-3C4F-8833-01E209C199F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="3352800"/>
-          <a:ext cx="1625638" cy="328295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ポート</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reflect</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に設定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="フローチャート: 判断 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8B4FC2-9187-7A48-9102-E7FB1CC6CD50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3708400" y="4330700"/>
-          <a:ext cx="2540000" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>reflect</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>の値は</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>999999?</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529610FE-E8D1-6349-8F3D-D74F1C4C04C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4965700" y="4165600"/>
-          <a:ext cx="2489200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1685077" cy="328295"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B52D59-7DE3-4843-9793-EE33D9A93DF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4965700" y="3886200"/>
-          <a:ext cx="1685077" cy="328295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reflect</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>センサー値を取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0CE8A9-DA11-FE42-8294-5ACED6656D88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3302000" y="3886200"/>
-          <a:ext cx="1689100" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FE3236-AD9D-9247-9F35-00E81C894850}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3302000" y="4889500"/>
-          <a:ext cx="419100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A561B2-E95E-F84E-A624-D5769EB33105}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3289300" y="3911600"/>
-          <a:ext cx="12700" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="253403" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C74C5A-0493-444B-8CC6-8D69FBB7238F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3479800" y="4572000"/>
-          <a:ext cx="253403" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Y</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3936,21 +3408,21 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B69134-08F7-1648-ABF2-950032C6B909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54DBB1F-3B5F-0748-B2C1-6131E4E9A515}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3958,8 +3430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11531600" y="3911600"/>
-          <a:ext cx="1676400" cy="1092200"/>
+          <a:off x="11531600" y="4711700"/>
+          <a:ext cx="1676400" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4023,22 +3495,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E021B7-006E-4747-A48C-48E2F5120F79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E7A0C3-4893-3843-8428-3E0AAFD4505E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +3518,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9906000" y="6731000"/>
+          <a:off x="9931400" y="7226300"/>
           <a:ext cx="2501900" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4074,20 +3546,25 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="275717" cy="264560"/>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2C6CA2-0045-A44E-A42D-368591A79288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CC4295-E355-CF47-B2D7-34F813D78605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,72 +3572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="5473700"/>
-          <a:ext cx="275717" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>N</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66372530-EF55-D344-BFB3-7B6FC623F68E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4140200" y="6019800"/>
-          <a:ext cx="1676400" cy="469900"/>
+          <a:off x="6159500" y="4699000"/>
+          <a:ext cx="2984500" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4199,89 +3612,44 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reflect</a:t>
+            <a:t>61</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>センサー値を取得</a:t>
+            <a:t>に対応する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が来ているかチェック</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDD25C-B3A5-654A-BA28-3074E9C1ED1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11569700" y="5435600"/>
-          <a:ext cx="1676400" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>来ていなければ</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Reflect</a:t>
+            <a:t>wait</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>来ていれば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>break</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>センサーの値を取得して送信</a:t>
+            <a:t>して抜ける</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4292,22 +3660,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49A8EA0-5233-4B44-B87D-2BD90D7E34E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24A3D31-62A8-984C-9C97-BE2256A4D37E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +3683,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9131300" y="6934200"/>
+          <a:off x="9144000" y="6362700"/>
           <a:ext cx="1676400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4369,232 +3737,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BDC198-BEC7-F447-9181-3497C52F4926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7454900" y="3962400"/>
-          <a:ext cx="1651000" cy="3302000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD1F2D6-FB75-4549-98B6-9F9F5EB32745}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3035300" y="2222500"/>
-          <a:ext cx="635000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8452DE39-33E8-E445-A94D-089E52AF315E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3035300" y="2209800"/>
-          <a:ext cx="0" cy="3517900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5574F65-BE48-AC47-A530-E51D63340277}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3060700" y="5715000"/>
-          <a:ext cx="1905000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="253403" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FC1490-67B0-4C44-ACA9-4DE4AE2A7C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47847864-F8D6-A440-AE78-EDD89761B66D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4602,8 +3761,162 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="1905000"/>
-          <a:ext cx="253403" cy="264560"/>
+          <a:off x="190500" y="279400"/>
+          <a:ext cx="4000500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を返すシーケンス。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>get_color_reflect()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の例。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DBA081-37D7-034B-ADFC-CCEB02AF4908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6654800" y="508000"/>
+          <a:ext cx="4102100" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>target/raspi_gcc/athrill/vdev_prot_raspike.c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2313582" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D560BDB4-2964-6145-A1FE-611092702597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="6896100"/>
+          <a:ext cx="2313582" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4632,7 +3945,396 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Y</a:t>
+            <a:t>Ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"&lt;0061:000000"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F805B6B-C75D-054C-8221-EF69EE9F6DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9931400" y="6197600"/>
+          <a:ext cx="2501900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1289327" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981A08CF-1392-3F40-9E8E-F47642523736}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="5867400"/>
+          <a:ext cx="1289327" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Reflect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値を送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="角丸四角形吹き出し 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35672B13-6BC8-754E-8674-E4E7B66E0D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12623800" y="6032500"/>
+          <a:ext cx="1993900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57139"/>
+            <a:gd name="adj2" fmla="val -12939"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>先に該当する値を送信する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0807E91B-B4E5-2E4D-988D-AD4493FCC3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7442200" y="8483600"/>
+          <a:ext cx="2501900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8876647C-1F9A-924F-915D-C59581D3038B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="7416800"/>
+          <a:ext cx="1676400" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の書き込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="667555" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B85EBF-FEC1-0648-98B2-37D1481ADA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="8229600"/>
+          <a:ext cx="667555" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>wake</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> up</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4642,23 +4344,269 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269FFE1B-9D4C-9F4A-9453-D233FB9EDB99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="3924300"/>
+          <a:ext cx="8483600" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1969898" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB66904C-46EA-824E-BCAE-C7E6D91C2020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330700" y="2362200"/>
+          <a:ext cx="1969898" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>opt:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>モード変更が必要な場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABC073A-D614-9B47-9E7C-E105C7844DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D74522E-9AAE-114E-931A-F25A4712BF8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7442200" y="9956800"/>
+          <a:ext cx="2501900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1120820" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="テキスト ボックス 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADED0570-75DA-064B-8A59-05F2C73E62B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="9664700"/>
+          <a:ext cx="1120820" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>reflect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB6DF85-1A7B-1D49-A214-F8E0DE5DC6A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4614,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2476500" y="6794500"/>
+          <a:off x="4927600" y="10325100"/>
           <a:ext cx="2489200" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4696,18 +4644,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328295"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF33B042-D205-9948-BF59-D917DDC419CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC8258E-021F-C84D-803B-1FECA35FFC6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,7 +4663,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2768600" y="6502400"/>
+          <a:off x="5219700" y="10033000"/>
           <a:ext cx="889987" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4754,23 +4702,72 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01AB9D5-546C-984E-A905-6E3F4F5EE998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2463800" y="10604500"/>
+          <a:ext cx="2489200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328295"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489E2803-1301-2043-92CC-A1044FBCE5D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08400FA9-57D6-C64D-9080-F86DBBFC47FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4778,20 +4775,304 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6985000" y="1841500"/>
-          <a:ext cx="2806700" cy="939800"/>
+          <a:off x="3797300" y="10274300"/>
+          <a:ext cx="889987" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>センサー値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形吹き出し 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF8F053-DBF4-FC44-818E-A9E58DB155AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="2908300"/>
+          <a:ext cx="2425700" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66693"/>
+            <a:gd name="adj2" fmla="val 37938"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RasPike</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コマンド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の内部データ上のオフセットをセットする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(athrill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のプロトコル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形吹き出し 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3031EB09-D397-114F-AA62-716FD320683B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11633200" y="2933700"/>
+          <a:ext cx="2425700" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -175594"/>
+            <a:gd name="adj2" fmla="val 127412"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>RasPike</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のコマンドに変換</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9A6A50-A5A6-F445-9A38-5CC13D9548C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4318000" y="2349500"/>
+          <a:ext cx="10871200" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2355581" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9915FA4-4BC7-C84C-AF2B-FC260195A1AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="3937000"/>
+          <a:ext cx="2355581" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4806,30 +5087,265 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>この辺りの処理は</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>loop:</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Ack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>を受けるまで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>200msec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>周期</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B994C9-FE03-5A4C-BBE5-CE19F9B44BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="8369300"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BBBF48-EB7D-5B41-80F7-28F4CA2E80DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4940300" y="8686800"/>
+          <a:ext cx="2489200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71A46E4-996F-7243-9512-3FA910B9C631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="9626600"/>
+          <a:ext cx="2489200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1120820" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29528ED7-DABD-8743-B7B1-E6ADA7330146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4965700" y="9347200"/>
+          <a:ext cx="1120820" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>target/raspi_gcc/driver/src/uart_dri.c</a:t>
+            <a:t>reflect</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>内で行われている</a:t>
+            <a:t>の値取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6480,7 +6996,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -6504,7 +7020,7 @@
   <sheetData>
     <row r="3" spans="2:12">
       <c r="E3" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.75" customHeight="1">
@@ -6521,7 +7037,7 @@
         <v>130</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>81</v>
@@ -6561,13 +7077,13 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -6598,10 +7114,10 @@
         <v>85</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>18</v>
@@ -6636,7 +7152,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>18</v>
@@ -6671,10 +7187,10 @@
         <v>90</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>18</v>
@@ -6706,7 +7222,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>18</v>
@@ -6741,10 +7257,10 @@
         <v>93</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>18</v>
@@ -6776,7 +7292,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>18</v>
@@ -6811,7 +7327,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>18</v>
@@ -6846,7 +7362,7 @@
         <v>205</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>18</v>
@@ -6881,7 +7397,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>18</v>
@@ -6916,7 +7432,7 @@
         <v>99</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>18</v>
@@ -6954,7 +7470,7 @@
         <v>129</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>138</v>
@@ -7080,7 +7596,7 @@
         <v>129</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>138</v>
@@ -7131,10 +7647,10 @@
         <v>104</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>18</v>
@@ -7167,7 +7683,7 @@
         <v>204</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>138</v>
@@ -7394,7 +7910,7 @@
         <v>204</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>159</v>
@@ -7426,10 +7942,10 @@
         <v>113</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>159</v>
@@ -7461,10 +7977,10 @@
         <v>114</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>159</v>
@@ -7496,10 +8012,10 @@
         <v>172</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>159</v>
@@ -7531,7 +8047,7 @@
         <v>116</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>18</v>
@@ -7566,7 +8082,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>18</v>
@@ -7601,7 +8117,7 @@
         <v>177</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>18</v>
@@ -7639,7 +8155,7 @@
         <v>129</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>159</v>
@@ -7741,7 +8257,7 @@
         <v>124</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>18</v>
@@ -7776,7 +8292,7 @@
         <v>126</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>18</v>
@@ -7833,7 +8349,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H24:H25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -7863,6 +8378,7 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7874,13 +8390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9774249-B467-6242-84EC-5EDC119DA342}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="99" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7897,12 +8413,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="223" customHeight="1">
+    <row r="4" spans="1:7" ht="235" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>238</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -7928,7 +8444,7 @@
     <row r="7" spans="1:7">
       <c r="B7" s="67"/>
       <c r="C7" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="22" customHeight="1">
@@ -7943,7 +8459,7 @@
     <row r="9" spans="1:7" ht="22" customHeight="1">
       <c r="B9" s="67"/>
       <c r="C9" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57">
@@ -7992,12 +8508,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="323">
+    <row r="18" spans="2:3" ht="409.6">
       <c r="B18" s="34" t="s">
         <v>238</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -8011,25 +8527,25 @@
         <v>251</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="66"/>
       <c r="C21" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="66"/>
       <c r="C22" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="66"/>
       <c r="C23" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8048,11 +8564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F922181-B4BF-0841-8350-5F40DDACB852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B941AF1E-5A80-7C49-86FE-C05ACD176121}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8065,10 +8581,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DD7363-B4EB-7845-AFFF-BACB0B47E1E5}">
-  <dimension ref="B2:L110"/>
+  <dimension ref="B2:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -8217,7 +8733,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>3</v>
@@ -8226,10 +8742,10 @@
         <v>73</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>75</v>
@@ -9574,167 +10090,231 @@
       <c r="L64" s="43"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="43"/>
-    </row>
-    <row r="66" spans="3:12">
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="43"/>
-    </row>
+      <c r="C65" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24">
+        <v>208</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="44"/>
+    </row>
+    <row r="66" spans="3:12" ht="16" customHeight="1"/>
     <row r="67" spans="3:12">
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="43"/>
+      <c r="C67" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="45"/>
     </row>
     <row r="68" spans="3:12">
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="43"/>
-    </row>
-    <row r="69" spans="3:12">
-      <c r="C69" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24">
+      <c r="C68" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="76"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="41"/>
+    </row>
+    <row r="69" spans="3:12" ht="17">
+      <c r="C69" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="74">
+        <v>1024</v>
+      </c>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="46"/>
+    </row>
+    <row r="70" spans="3:12" ht="85">
+      <c r="C70" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="24">
+        <v>0</v>
+      </c>
+      <c r="F71" s="24">
+        <f>I71/4</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="24">
+        <v>1</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="24">
+        <v>0</v>
+      </c>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+    </row>
+    <row r="72" spans="3:12">
+      <c r="C72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="24">
+        <f t="shared" ref="F72:F92" si="1">I72/4</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="24">
+        <v>0</v>
+      </c>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="3:12">
+      <c r="C73" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2</v>
+      </c>
+      <c r="F73" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="24">
+        <v>0</v>
+      </c>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="44"/>
-    </row>
-    <row r="70" spans="3:12" ht="16" customHeight="1"/>
-    <row r="71" spans="3:12">
-      <c r="C71" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="45"/>
-    </row>
-    <row r="72" spans="3:12">
-      <c r="C72" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="76"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="41"/>
-    </row>
-    <row r="73" spans="3:12" ht="17">
-      <c r="C73" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="74">
-        <v>1024</v>
-      </c>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="46"/>
-    </row>
-    <row r="74" spans="3:12" ht="34">
-      <c r="C74" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G74" s="4" t="s">
+    </row>
+    <row r="74" spans="3:12">
+      <c r="C74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="5">
         <v>3</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="K74" s="6"/>
+      <c r="F74" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="24">
+        <v>0</v>
+      </c>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="75" spans="3:12">
-      <c r="C75" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" s="24">
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="5">
+        <v>4</v>
+      </c>
+      <c r="F75" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F75" s="24">
-        <f>I75/4</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="24">
+      <c r="G75" s="5">
         <v>1</v>
       </c>
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="24">
@@ -9745,16 +10325,16 @@
     </row>
     <row r="76" spans="3:12">
       <c r="C76" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E76" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F76" s="24">
-        <f t="shared" ref="F76:F96" si="1">I76/4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="5">
@@ -9771,13 +10351,13 @@
     </row>
     <row r="77" spans="3:12">
       <c r="C77" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="E77" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F77" s="24">
         <f t="shared" si="1"/>
@@ -9794,19 +10374,16 @@
       </c>
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
-      <c r="L77" s="1" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="78" spans="3:12">
       <c r="C78" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E78" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F78" s="24">
         <f t="shared" si="1"/>
@@ -9823,148 +10400,157 @@
       </c>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
-      <c r="L78" s="1" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="79" spans="3:12">
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="5">
-        <v>4</v>
-      </c>
-      <c r="F79" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="5">
+      <c r="E79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="24">
         <v>1</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" s="24">
-        <v>0</v>
       </c>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
     </row>
     <row r="80" spans="3:12">
       <c r="C80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="5">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F80" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I80" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
+      <c r="L80" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="81" spans="3:12">
       <c r="C81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="5">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F81" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I81" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
+      <c r="L81" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="82" spans="3:12">
       <c r="C82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="5">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F82" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I82" s="24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
+      <c r="L82" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="83" spans="3:12">
       <c r="C83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="5"/>
+      <c r="F83" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G83" s="5">
+        <v>4</v>
+      </c>
       <c r="H83" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
+      <c r="L83" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="84" spans="3:12">
       <c r="C84" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G84" s="5">
         <v>4</v>
@@ -9973,27 +10559,26 @@
         <v>19</v>
       </c>
       <c r="I84" s="24">
-        <v>4</v>
-      </c>
-      <c r="J84" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K84" s="24"/>
-      <c r="L84" s="1" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="85" spans="3:12">
       <c r="C85" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F85" s="24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G85" s="5">
         <v>4</v>
@@ -10002,27 +10587,26 @@
         <v>19</v>
       </c>
       <c r="I85" s="24">
-        <v>8</v>
-      </c>
-      <c r="J85" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K85" s="24"/>
-      <c r="L85" s="1" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="86" spans="3:12">
       <c r="C86" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F86" s="24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G86" s="5">
         <v>4</v>
@@ -10031,27 +10615,26 @@
         <v>19</v>
       </c>
       <c r="I86" s="24">
-        <v>12</v>
-      </c>
-      <c r="J86" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K86" s="24"/>
-      <c r="L86" s="1" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="87" spans="3:12">
       <c r="C87" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G87" s="5">
         <v>4</v>
@@ -10060,27 +10643,26 @@
         <v>19</v>
       </c>
       <c r="I87" s="24">
-        <v>16</v>
-      </c>
-      <c r="J87" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K87" s="24"/>
-      <c r="L87" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="88" spans="3:12">
       <c r="C88" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="24">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G88" s="5">
         <v>4</v>
@@ -10089,9 +10671,11 @@
         <v>19</v>
       </c>
       <c r="I88" s="24">
-        <v>20</v>
-      </c>
-      <c r="J88" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="3:12">
@@ -10099,14 +10683,14 @@
         <v>60</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F89" s="24">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G89" s="5">
         <v>4</v>
@@ -10115,24 +10699,26 @@
         <v>19</v>
       </c>
       <c r="I89" s="24">
-        <v>24</v>
-      </c>
-      <c r="J89" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="3:12">
       <c r="C90" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D90" s="26" t="s">
-        <v>67</v>
+      <c r="D90" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F90" s="24">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G90" s="5">
         <v>4</v>
@@ -10141,128 +10727,125 @@
         <v>19</v>
       </c>
       <c r="I90" s="24">
-        <v>28</v>
-      </c>
-      <c r="J90" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K90" s="24"/>
     </row>
     <row r="91" spans="3:12">
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" s="5" t="s">
+      <c r="D91" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F91" s="24">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G91" s="5">
+        <v>12</v>
+      </c>
+      <c r="G91" s="24">
         <v>4</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I91" s="24">
-        <v>32</v>
-      </c>
-      <c r="J91" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K91" s="24"/>
     </row>
     <row r="92" spans="3:12">
-      <c r="C92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="C92" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="24">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G92" s="5">
+        <v>13</v>
+      </c>
+      <c r="G92" s="29">
         <v>4</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I92" s="24">
-        <v>36</v>
-      </c>
-      <c r="J92" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="3:12">
-      <c r="C93" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G93" s="5">
+      <c r="C93" s="23"/>
+      <c r="D93" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24">
         <v>4</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="24">
-        <v>40</v>
-      </c>
+      <c r="I93" s="24"/>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="3:12">
-      <c r="C94" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="C94" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" s="24"/>
       <c r="F94" s="24">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G94" s="5">
+        <f>I94/4</f>
+        <v>56</v>
+      </c>
+      <c r="G94" s="29">
         <v>4</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="24">
-        <v>44</v>
-      </c>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
+      <c r="I94" s="5">
+        <v>224</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="71" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="95" spans="3:12">
       <c r="C95" s="23" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E95" s="24" t="s">
-        <v>18</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E95" s="24"/>
       <c r="F95" s="24">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" ref="F95:F105" si="2">I95/4</f>
+        <v>57</v>
       </c>
       <c r="G95" s="24">
         <v>4</v>
@@ -10270,25 +10853,23 @@
       <c r="H95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="24">
-        <v>48</v>
-      </c>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
+      <c r="I95" s="5">
+        <v>228</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="70"/>
     </row>
     <row r="96" spans="3:12">
-      <c r="C96" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="C96" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E96" s="24"/>
       <c r="F96" s="24">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
       <c r="G96" s="29">
         <v>4</v>
@@ -10296,42 +10877,47 @@
       <c r="H96" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="24">
-        <v>52</v>
-      </c>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
+      <c r="I96" s="5">
+        <v>232</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="70"/>
     </row>
     <row r="97" spans="3:11">
-      <c r="C97" s="23"/>
+      <c r="C97" s="23" t="s">
+        <v>263</v>
+      </c>
       <c r="D97" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" s="24"/>
+        <v>267</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
       <c r="G97" s="24">
         <v>4</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-    </row>
-    <row r="98" spans="3:11">
+      <c r="I97" s="5">
+        <v>236</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="70"/>
+    </row>
+    <row r="98" spans="3:11" ht="16" customHeight="1">
       <c r="C98" s="23" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24">
-        <f>I98/4</f>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="G98" s="29">
         <v>4</v>
@@ -10340,24 +10926,26 @@
         <v>19</v>
       </c>
       <c r="I98" s="5">
-        <v>224</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K98" s="71" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="3:11">
       <c r="C99" s="23" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="24">
-        <f t="shared" ref="F99:F109" si="2">I99/4</f>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
       <c r="G99" s="24">
         <v>4</v>
@@ -10366,22 +10954,24 @@
         <v>19</v>
       </c>
       <c r="I99" s="5">
-        <v>228</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K99" s="70"/>
     </row>
     <row r="100" spans="3:11">
       <c r="C100" s="23" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="24">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G100" s="29">
         <v>4</v>
@@ -10390,22 +10980,24 @@
         <v>19</v>
       </c>
       <c r="I100" s="5">
-        <v>232</v>
-      </c>
-      <c r="J100" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K100" s="70"/>
     </row>
     <row r="101" spans="3:11">
       <c r="C101" s="23" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G101" s="24">
         <v>4</v>
@@ -10414,228 +11006,130 @@
         <v>19</v>
       </c>
       <c r="I101" s="5">
-        <v>236</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>252</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="K101" s="70"/>
     </row>
     <row r="102" spans="3:11">
       <c r="C102" s="23" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G102" s="29">
+        <v>64</v>
+      </c>
+      <c r="G102" s="24">
         <v>4</v>
       </c>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I102" s="5">
-        <v>240</v>
-      </c>
-      <c r="J102" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="K102" s="71" t="s">
-        <v>291</v>
+        <v>256</v>
+      </c>
+      <c r="J102" s="5"/>
+      <c r="K102" s="70" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="3:11">
       <c r="C103" s="23" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="G103" s="24">
+        <v>65</v>
+      </c>
+      <c r="G103" s="29">
         <v>4</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I103" s="5">
-        <v>244</v>
-      </c>
-      <c r="J103" s="81"/>
+        <v>260</v>
+      </c>
+      <c r="J103" s="5"/>
       <c r="K103" s="70"/>
     </row>
     <row r="104" spans="3:11">
       <c r="C104" s="23" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24">
         <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="G104" s="29">
+        <v>66</v>
+      </c>
+      <c r="G104" s="24">
         <v>4</v>
       </c>
-      <c r="H104" s="30" t="s">
+      <c r="H104" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="5">
-        <v>248</v>
-      </c>
-      <c r="J104" s="81"/>
+        <v>264</v>
+      </c>
+      <c r="J104" s="5"/>
       <c r="K104" s="70"/>
     </row>
     <row r="105" spans="3:11">
       <c r="C105" s="23" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="24">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="G105" s="24">
+        <v>67</v>
+      </c>
+      <c r="G105" s="29">
         <v>4</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="30" t="s">
         <v>19</v>
       </c>
       <c r="I105" s="5">
-        <v>252</v>
-      </c>
-      <c r="J105" s="82"/>
+        <v>268</v>
+      </c>
+      <c r="J105" s="5"/>
       <c r="K105" s="70"/>
     </row>
     <row r="106" spans="3:11">
-      <c r="C106" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="G106" s="24">
+      <c r="C106" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F106" s="1">
+        <v>127</v>
+      </c>
+      <c r="G106" s="1">
         <v>4</v>
       </c>
-      <c r="H106" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I106" s="5">
-        <v>256</v>
-      </c>
-      <c r="J106" s="5"/>
-      <c r="K106" s="70" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="3:11">
-      <c r="C107" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="G107" s="29">
-        <v>4</v>
-      </c>
-      <c r="H107" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="5">
-        <v>260</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="70"/>
-    </row>
-    <row r="108" spans="3:11">
-      <c r="C108" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="G108" s="24">
-        <v>4</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I108" s="5">
-        <v>264</v>
-      </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="70"/>
-    </row>
-    <row r="109" spans="3:11">
-      <c r="C109" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="G109" s="29">
-        <v>4</v>
-      </c>
-      <c r="H109" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109" s="5">
-        <v>268</v>
-      </c>
-      <c r="J109" s="5"/>
-      <c r="K109" s="70"/>
-    </row>
-    <row r="110" spans="3:11">
-      <c r="C110" s="1" t="s">
+      <c r="I106" s="1">
+        <v>508</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F110" s="1">
-        <v>127</v>
-      </c>
-      <c r="G110" s="1">
-        <v>4</v>
-      </c>
-      <c r="I110" s="1">
-        <v>508</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>290</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:K11"/>
     <mergeCell ref="C12:D12"/>
@@ -10648,13 +11142,12 @@
     <mergeCell ref="E8:K8"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:K13"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="K102:K105"/>
     <mergeCell ref="K98:K101"/>
-    <mergeCell ref="K106:K109"/>
-    <mergeCell ref="K102:K105"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="J102:J105"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="E68:K68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
